--- a/Project-Part 1/Book1.xlsx
+++ b/Project-Part 1/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NITCMECHSEM7\Project-Part 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913713AA-0016-49B0-9917-EA4AFBDE1604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BB8E8B-6085-445D-BC05-697E04EC3102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DA837A49-A50E-4862-A3EE-A2764B5CF484}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Phase 1: Initial Development and Implementation</t>
   </si>
@@ -64,42 +64,6 @@
     <t xml:space="preserve"> -Verify the correctness of the model through simulations</t>
   </si>
   <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Define project objectives, scope, milestones</t>
   </si>
   <si>
@@ -137,6 +101,72 @@
   </si>
   <si>
     <t xml:space="preserve"> - Prepare a presentation summarizing the findings</t>
+  </si>
+  <si>
+    <t>W 1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>W 4</t>
+  </si>
+  <si>
+    <t>W 5</t>
+  </si>
+  <si>
+    <t>W 6</t>
+  </si>
+  <si>
+    <t>W 7</t>
+  </si>
+  <si>
+    <t>W 8</t>
+  </si>
+  <si>
+    <t>W 9</t>
+  </si>
+  <si>
+    <t>W 10</t>
+  </si>
+  <si>
+    <t>W 11</t>
+  </si>
+  <si>
+    <t>W 12</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>W7</t>
+  </si>
+  <si>
+    <t>W8</t>
+  </si>
+  <si>
+    <t>W9</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <t>W12</t>
   </si>
 </sst>
 </file>
@@ -256,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -384,21 +414,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -569,47 +584,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,12 +944,24 @@
   <dimension ref="B2:N20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="69.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" customWidth="1"/>
+    <col min="4" max="4" width="4.21875" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.5546875" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+    <col min="9" max="9" width="4.44140625" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -946,44 +970,44 @@
         <v>0</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -995,10 +1019,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="22"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
@@ -1012,11 +1036,11 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="22"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
-        <v>24</v>
+      <c r="B6" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="1"/>
@@ -1029,10 +1053,10 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="22"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1"/>
@@ -1046,10 +1070,10 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="22"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1061,10 +1085,10 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="22"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1"/>
@@ -1078,10 +1102,10 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="22"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1"/>
@@ -1095,10 +1119,10 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="22"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -1110,10 +1134,10 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="22"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1"/>
@@ -1127,10 +1151,10 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="22"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1"/>
@@ -1144,10 +1168,10 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="22"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1"/>
@@ -1161,10 +1185,10 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="22"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1176,10 +1200,10 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="22"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1"/>
@@ -1193,10 +1217,10 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="22"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="1"/>
@@ -1210,10 +1234,10 @@
       <c r="K17" s="4"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="22"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1225,10 +1249,10 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="22"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1"/>
@@ -1242,24 +1266,24 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="22"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="29"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1272,75 +1296,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40310746-C7A1-4CF7-AA65-303EE8E3AE82}">
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="57.21875" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="5" width="3.44140625" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.77734375" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" customWidth="1"/>
+    <col min="10" max="11" width="3.6640625" customWidth="1"/>
+    <col min="12" max="12" width="4.5546875" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="14" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="C3" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="N4" s="30"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="33"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
-        <v>26</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1353,11 +1376,11 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="22"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="34" t="s">
-        <v>27</v>
+      <c r="B6" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1370,11 +1393,11 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="22"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
-        <v>28</v>
+      <c r="B7" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
@@ -1387,10 +1410,10 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="22"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6"/>
@@ -1402,11 +1425,11 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="22"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
-        <v>29</v>
+      <c r="B9" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1419,11 +1442,11 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="22"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
-        <v>30</v>
+      <c r="B10" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1436,10 +1459,10 @@
       <c r="K10" s="4"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="22"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1451,11 +1474,11 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="22"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
-        <v>31</v>
+      <c r="B12" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1468,11 +1491,11 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="22"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
-        <v>32</v>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1485,10 +1508,10 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="22"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1500,11 +1523,11 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="22"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
-        <v>33</v>
+      <c r="B15" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1517,11 +1540,11 @@
       <c r="K15" s="1"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="35"/>
+      <c r="N15" s="32"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>34</v>
+      <c r="B16" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1534,11 +1557,11 @@
       <c r="K16" s="2"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="36"/>
+      <c r="N16" s="33"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
-        <v>35</v>
+      <c r="B17" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1551,24 +1574,24 @@
       <c r="K17" s="1"/>
       <c r="L17" s="7"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="37"/>
+      <c r="N17" s="34"/>
     </row>
     <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="39"/>
+      <c r="B18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
